--- a/codelists/LAMA_SNOMED.xlsx
+++ b/codelists/LAMA_SNOMED.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,23 +360,13 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>VPID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>APID</t>
+          <t>Medcode</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>38893611000001108</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>20985511000001101</t>
         </is>
       </c>
@@ -384,11 +374,6 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>38893611000001108</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>28424911000001104</t>
         </is>
       </c>
@@ -396,11 +381,6 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38893611000001108</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>37399011000001107</t>
         </is>
       </c>
@@ -408,11 +388,6 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>38893611000001108</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>37633411000001104</t>
         </is>
       </c>
@@ -420,11 +395,6 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>38893611000001108</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>38131811000001105</t>
         </is>
       </c>
@@ -432,11 +402,6 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21496211000001102</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>21495411000001107</t>
         </is>
       </c>
@@ -444,11 +409,6 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21496211000001102</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>30273611000001108</t>
         </is>
       </c>
@@ -456,11 +416,6 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21496211000001102</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>37593111000001108</t>
         </is>
       </c>
@@ -468,11 +423,6 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21496211000001102</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>37728211000001103</t>
         </is>
       </c>
@@ -480,11 +430,6 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21496211000001102</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>37996311000001109</t>
         </is>
       </c>
@@ -492,11 +437,6 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21496211000001102</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>40478511000001100</t>
         </is>
       </c>
@@ -504,11 +444,6 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>36022811000001100</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>2947411000001107</t>
         </is>
       </c>
@@ -516,11 +451,6 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>36022911000001105</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>2944211000001101</t>
         </is>
       </c>
@@ -528,11 +458,6 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>36022911000001105</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>5272411000001107</t>
         </is>
       </c>
@@ -540,11 +465,6 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>33596311000001107</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>33594911000001100</t>
         </is>
       </c>
@@ -552,11 +472,6 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>33596311000001107</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>37716011000001104</t>
         </is>
       </c>
@@ -564,11 +479,6 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>33596311000001107</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>37743711000001101</t>
         </is>
       </c>
@@ -576,11 +486,6 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>33596311000001107</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>38120811000001104</t>
         </is>
       </c>
@@ -588,11 +493,6 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9478911000001107</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>3380011000001106</t>
         </is>
       </c>
@@ -600,11 +500,6 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9478911000001107</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>10469711000001108</t>
         </is>
       </c>
@@ -612,11 +507,6 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9478911000001107</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>10785611000001108</t>
         </is>
       </c>
@@ -624,11 +514,6 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9478911000001107</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>13953011000001104</t>
         </is>
       </c>
@@ -636,11 +521,6 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9478911000001107</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>14382411000001103</t>
         </is>
       </c>
@@ -648,11 +528,6 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9478911000001107</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>18155011000001100</t>
         </is>
       </c>
@@ -660,11 +535,6 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9478911000001107</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>37394911000001105</t>
         </is>
       </c>
@@ -672,11 +542,6 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9478911000001107</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>39408811000001105</t>
         </is>
       </c>
@@ -684,11 +549,6 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9478911000001107</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>39606211000001105</t>
         </is>
       </c>
@@ -696,11 +556,6 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>3378211000001106</t>
         </is>
       </c>
@@ -708,11 +563,6 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>5319611000001103</t>
         </is>
       </c>
@@ -720,11 +570,6 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>10509311000001101</t>
         </is>
       </c>
@@ -732,11 +577,6 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>13952411000001104</t>
         </is>
       </c>
@@ -744,11 +584,6 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>14384011000001101</t>
         </is>
       </c>
@@ -756,11 +591,6 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>17454411000001104</t>
         </is>
       </c>
@@ -768,11 +598,6 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>37730011000001109</t>
         </is>
       </c>
@@ -780,11 +605,6 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>37743311000001100</t>
         </is>
       </c>
@@ -792,11 +612,6 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>39605711000001106</t>
         </is>
       </c>
@@ -804,11 +619,6 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9479011000001103</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>39666311000001103</t>
         </is>
       </c>
@@ -816,11 +626,6 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>37692711000001105</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>37677711000001102</t>
         </is>
       </c>
@@ -828,11 +633,6 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12197411000001102</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>12146911000001103</t>
         </is>
       </c>
@@ -840,11 +640,6 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12197411000001102</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>17454611000001101</t>
         </is>
       </c>
@@ -852,11 +647,6 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12197411000001102</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>24498211000001109</t>
         </is>
       </c>
@@ -864,11 +654,6 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>27890611000001109</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>27567911000001101</t>
         </is>
       </c>
@@ -876,11 +661,6 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>27890611000001109</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>37439611000001101</t>
         </is>
       </c>
@@ -888,11 +668,6 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>27890611000001109</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>37511511000001102</t>
         </is>
       </c>
@@ -900,11 +675,6 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>27890611000001109</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>37666611000001102</t>
         </is>
       </c>
@@ -912,11 +682,6 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>27890611000001109</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>37989411000001108</t>
         </is>
       </c>
@@ -924,11 +689,6 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27890611000001109</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>38140511000001104</t>
         </is>
       </c>
@@ -936,12 +696,77 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>39167711000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>38893611000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>21496211000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>36022811000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>36022911000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>33596311000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>9478911000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>9479011000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>37692711000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>12197411000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>27890611000001109</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>39167711000001100</t>
         </is>
       </c>
     </row>
